--- a/cerveza 2.xlsx
+++ b/cerveza 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIGUEL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIGUEL\Documents\GitHub\TRABAJOS_97\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +585,19 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cerveza 2.xlsx
+++ b/cerveza 2.xlsx
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +598,26 @@
         <v>212</v>
       </c>
     </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
